--- a/akademicky_rok_2019_2020_letni_semestr/_sbirka_uloh_pro_ucely_bakalarskych_statistickych_predmetu_.xlsx
+++ b/akademicky_rok_2019_2020_letni_semestr/_sbirka_uloh_pro_ucely_bakalarskych_statistickych_predmetu_.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
   <si>
     <t>výsledek testu</t>
   </si>
@@ -346,9 +346,6 @@
     <t>REZIDUA</t>
   </si>
   <si>
-    <t>Očekávané X, cena domu [tis. $]</t>
-  </si>
-  <si>
     <t>Normovaná rezidua</t>
   </si>
   <si>
@@ -392,13 +389,67 @@
   </si>
   <si>
     <t>korelační koeficient (excelovská funkce) =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pearsonův koeficient kontingence C = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   indikuje spíše slabší asociaci mezi oběma kategorickými proměnnými</t>
+  </si>
+  <si>
+    <t>Cramerovo V =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   indikuje opět spíše slabší asociaci mezi oběma kategorickými proměnnými</t>
+  </si>
+  <si>
+    <t>F_{0,05}(1, 10 - 1 - 1) = F_{0,05}(1, 8) =</t>
+  </si>
+  <si>
+    <t>F = 256,18 &lt; F_{0,05}(1, 8) = 5,32 =&gt; proto zamítáme H_0 o tom, že regresní model je nevhodný</t>
+  </si>
+  <si>
+    <t>hat(sigma) =</t>
+  </si>
+  <si>
+    <t>s_{b_0} =</t>
+  </si>
+  <si>
+    <t>s_{b_1} =</t>
+  </si>
+  <si>
+    <t>(X - bar(X))^2</t>
+  </si>
+  <si>
+    <t>T  = b_0 / s_{b_0} =</t>
+  </si>
+  <si>
+    <t>T  = b_1 / s_{b_1} =</t>
+  </si>
+  <si>
+    <t>t_{0,95}(10 - 2) = t_{0,95}(8) =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   testová statistika T = 16,01 &gt; t_{0,95}(8) = 2,31 =&gt; proto zamítáme H_0 o tom, že by b_1 = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   testová statistika T = |-3,91| &gt; t_{0,95}(8) = 2,31 =&gt; proto zamítáme H_0 o tom, že by b_0 = 0</t>
+  </si>
+  <si>
+    <t>Očekávané Y, náklady na údržbu [$]</t>
+  </si>
+  <si>
+    <t>PRAVDĚPODOBNOST</t>
+  </si>
+  <si>
+    <t>Percentil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +512,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -470,7 +535,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -631,35 +696,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -703,9 +744,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -733,41 +771,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -815,6 +826,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -920,39 +946,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>udrzba_domu_vs_jeho_cena!$C$56:$C$65</c:f>
+              <c:f>udrzba_domu_vs_jeho_cena!$C$65:$C$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.217407488960788</c:v>
+                  <c:v>-34.676091337781713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.9376024682915371</c:v>
+                  <c:v>41.578120414033435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6002491490769444</c:v>
+                  <c:v>6.5145674760796055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.5489763287427252</c:v>
+                  <c:v>82.30802042772973</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.4301462444216781</c:v>
+                  <c:v>26.251550668205994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.1432352486181543</c:v>
+                  <c:v>47.677852348993383</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0530095644974296</c:v>
+                  <c:v>-34.090907312109891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.1199458302537835</c:v>
+                  <c:v>15.53485823859728</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.161440685021034</c:v>
+                  <c:v>-106.64871739683412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3482975309255778</c:v>
+                  <c:v>-44.449253526914276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,39 +1269,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>udrzba_domu_vs_jeho_cena!$B$56:$B$65</c:f>
+              <c:f>udrzba_domu_vs_jeho_cena!$B$65:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>129.78259251103921</c:v>
+                  <c:v>869.67609133778171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.937602468291537</c:v>
+                  <c:v>21.421879585966565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.600249149076944</c:v>
+                  <c:v>233.48543252392039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.54897632874273</c:v>
+                  <c:v>922.69197957227027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.430146244421678</c:v>
+                  <c:v>157.74844933179401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.143235248618154</c:v>
+                  <c:v>165.32214765100662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.94699043550257</c:v>
+                  <c:v>347.09090731210989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107.11994583025378</c:v>
+                  <c:v>642.46514176140272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.838559314978966</c:v>
+                  <c:v>301.64871739683412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.651702469074422</c:v>
+                  <c:v>589.44925352691428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,19 +1410,347 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>X, cena domu [tis. $] Graf porovnání hodnot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y, náklady na údržbu [$]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>udrzba_domu_vs_jeho_cena!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>udrzba_domu_vs_jeho_cena!$C$10:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4028-44E8-80FB-4BB760ECC85B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Očekávané Y, náklady na údržbu [$]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>udrzba_domu_vs_jeho_cena!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>udrzba_domu_vs_jeho_cena!$B$65:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>869.67609133778171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.421879585966565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233.48543252392039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>922.69197957227027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157.74844933179401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165.32214765100662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>347.09090731210989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>642.46514176140272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301.64871739683412</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>589.44925352691428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4028-44E8-80FB-4BB760ECC85B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="271353712"/>
+        <c:axId val="175254352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="271353712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>X, cena domu [tis. $]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175254352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175254352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Y, náklady na údržbu [$]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="271353712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1420,13 +1774,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1441,6 +1795,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graf 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1727,14 +2111,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="A1" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
     </row>
@@ -1750,7 +2134,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="55">
+      <c r="B3" s="43">
         <v>495.2</v>
       </c>
       <c r="C3" s="6">
@@ -1871,14 +2255,14 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="A11" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
@@ -1899,20 +2283,20 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18">
         <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
-        <v>112</v>
+      <c r="A19" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="B19">
         <f>COUNTIF(B3:D9,"&gt;=0")</f>
@@ -1920,8 +2304,8 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
-        <v>111</v>
+      <c r="A20" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="B20">
         <f>AVERAGE(B3:D9)</f>
@@ -1929,8 +2313,8 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>110</v>
+      <c r="A21" s="42" t="s">
+        <v>109</v>
       </c>
       <c r="B21">
         <f>_xlfn.STDEV.S(B3:D9)</f>
@@ -1938,26 +2322,26 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="56">
+      <c r="A22" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="44">
         <f>(B20-500)/B21*SQRT(B19)</f>
         <v>0.89827767664134517</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="57">
+      <c r="A23" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="45">
         <f>TINV(B18,B19-1)</f>
         <v>2.0859634472658648</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1991,14 +2375,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
     </row>
@@ -2015,12 +2399,12 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
@@ -2125,12 +2509,12 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -2289,7 +2673,7 @@
       <c r="J22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="37">
         <f>(H19/2)/(H24/9)</f>
         <v>1.253199268738574</v>
       </c>
@@ -2320,7 +2704,7 @@
       <c r="J23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="39">
         <v>4.2569999999999997</v>
       </c>
       <c r="L23" s="9" t="s">
@@ -2478,13 +2862,13 @@
       <c r="D41" s="3">
         <v>266.58333333333326</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="38">
         <v>1.2531992687385736</v>
       </c>
       <c r="F41" s="3">
         <v>0.33102739575531148</v>
       </c>
-      <c r="G41" s="52">
+      <c r="G41" s="40">
         <v>4.2564947290937507</v>
       </c>
     </row>
@@ -2542,7 +2926,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -2559,14 +2943,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2581,10 +2965,10 @@
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="9"/>
       <c r="F3" s="15"/>
       <c r="G3" s="10"/>
@@ -2605,7 +2989,7 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2625,7 +3009,7 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="9" t="s">
         <v>46</v>
       </c>
@@ -2694,10 +3078,10 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="55"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -2711,7 +3095,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="56" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
@@ -2729,7 +3113,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
+      <c r="A17" s="56"/>
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -2762,7 +3146,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="57" t="s">
         <v>49</v>
       </c>
       <c r="C20">
@@ -2775,7 +3159,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="69"/>
+      <c r="B21" s="57"/>
       <c r="C21">
         <f>$E17*C$18/$E$18</f>
         <v>70.38</v>
@@ -2810,7 +3194,7 @@
       <c r="F24" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="37">
         <f>SUM(C23:D24)</f>
         <v>7.2505867618115474</v>
       </c>
@@ -2826,7 +3210,7 @@
       <c r="F25" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="39">
         <v>3.84</v>
       </c>
       <c r="H25" s="9" t="s">
@@ -2837,7 +3221,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="53">
+      <c r="N25" s="41">
         <f>_xlfn.CHISQ.INV(0.95,1)</f>
         <v>3.8414588206941236</v>
       </c>
@@ -2854,6 +3238,30 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="13"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28">
+        <f>SQRT(G24 / (G24 + E18))</f>
+        <v>0.15361733140667744</v>
+      </c>
+      <c r="H28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29">
+        <f>SQRT(G24 / (E18 * (MIN(2,2) - 1)))</f>
+        <v>0.15546260817113491</v>
+      </c>
+      <c r="H29" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2865,6 +3273,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2884,14 +3293,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
     </row>
@@ -3091,7 +3500,7 @@
       <c r="J16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="37">
         <f>H14</f>
         <v>7.36</v>
       </c>
@@ -3107,7 +3516,7 @@
       <c r="J17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="39">
         <v>11.1</v>
       </c>
       <c r="L17" s="9" t="s">
@@ -3118,7 +3527,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
-      <c r="R17" s="53">
+      <c r="R17" s="41">
         <f>_xlfn.CHISQ.INV(0.95,5)</f>
         <v>11.070497693516351</v>
       </c>
@@ -3146,7 +3555,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -3162,17 +3571,19 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -3195,89 +3606,89 @@
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>835</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>63</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>240</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <v>1005</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>184</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>213</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <v>313</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <v>658</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="28">
         <v>195</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="29">
         <v>545</v>
       </c>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>136</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>24</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>52</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>143</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>42</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <v>43</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <v>67</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>106</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="31">
         <v>61</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="32">
         <v>99</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3294,35 +3705,35 @@
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="38"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -3331,27 +3742,30 @@
       <c r="C9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="59" t="s">
-        <v>118</v>
+      <c r="J9" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
       <c r="B10" s="23">
@@ -3376,7 +3790,7 @@
         <f>F10^2</f>
         <v>1202.4313104661721</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f>(($C$23+$C$22*B10)-$C$20)^2</f>
         <v>197647.9009891795</v>
       </c>
@@ -3384,9 +3798,13 @@
         <f t="shared" ref="J10:J19" si="0">C10^2</f>
         <v>697225</v>
       </c>
+      <c r="K10">
+        <f>(B10-$B$20)^2</f>
+        <v>3445.6900000000005</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
       <c r="B11" s="23">
@@ -3411,7 +3829,7 @@
         <f t="shared" ref="G11:G19" si="4">F11^2</f>
         <v>1728.7400971638449</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f t="shared" ref="H11:H19" si="5">(($C$23+$C$22*B11)-$C$20)^2</f>
         <v>162956.02490100672</v>
       </c>
@@ -3419,9 +3837,13 @@
         <f t="shared" si="0"/>
         <v>3969</v>
       </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K19" si="6">(B11-$B$20)^2</f>
+        <v>2840.89</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
       <c r="B12" s="23">
@@ -3446,7 +3868,7 @@
         <f t="shared" si="4"/>
         <v>42.43958940039272</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <f t="shared" si="5"/>
         <v>36716.142469045029</v>
       </c>
@@ -3454,9 +3876,13 @@
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>640.0899999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
       <c r="B13" s="23">
@@ -3481,7 +3907,7 @@
         <f t="shared" si="4"/>
         <v>6774.610226731631</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="5"/>
         <v>247597.77813465026</v>
       </c>
@@ -3489,9 +3915,13 @@
         <f t="shared" si="0"/>
         <v>1010025</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>4316.4900000000007</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>5</v>
       </c>
       <c r="B14" s="23">
@@ -3516,7 +3946,7 @@
         <f t="shared" si="4"/>
         <v>689.14391248537754</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f t="shared" si="5"/>
         <v>71476.851644694238</v>
       </c>
@@ -3524,9 +3954,13 @@
         <f t="shared" si="0"/>
         <v>33856</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>1246.0899999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>6</v>
       </c>
       <c r="B15" s="23">
@@ -3551,7 +3985,7 @@
         <f t="shared" si="4"/>
         <v>2273.1776046123978</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f t="shared" si="5"/>
         <v>67484.53257105533</v>
       </c>
@@ -3559,9 +3993,13 @@
         <f t="shared" si="0"/>
         <v>45369</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>1176.4899999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>7</v>
       </c>
       <c r="B16" s="23">
@@ -3586,7 +4024,7 @@
         <f t="shared" si="4"/>
         <v>1162.1899613628716</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <f t="shared" si="5"/>
         <v>6085.4185419878249</v>
       </c>
@@ -3594,9 +4032,13 @@
         <f t="shared" si="0"/>
         <v>97969</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>106.08999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>8</v>
       </c>
       <c r="B17" s="23">
@@ -3621,7 +4063,7 @@
         <f t="shared" si="4"/>
         <v>241.33182049331734</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <f t="shared" si="5"/>
         <v>47247.604852954639</v>
       </c>
@@ -3629,9 +4071,13 @@
         <f t="shared" si="0"/>
         <v>432964</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>823.69000000000017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>9</v>
       </c>
       <c r="B18" s="23">
@@ -3656,7 +4102,7 @@
         <f t="shared" si="4"/>
         <v>11373.9489223898</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f t="shared" si="5"/>
         <v>15240.21917636672</v>
       </c>
@@ -3664,9 +4110,13 @@
         <f t="shared" si="0"/>
         <v>38025</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>265.68999999999988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>10</v>
       </c>
       <c r="B19" s="23">
@@ -3691,7 +4141,7 @@
         <f t="shared" si="4"/>
         <v>1975.736139099891</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <f t="shared" si="5"/>
         <v>27010.6771348539</v>
       </c>
@@ -3699,9 +4149,13 @@
         <f t="shared" si="0"/>
         <v>297025</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>470.8900000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="16">
@@ -3709,26 +4163,26 @@
         <v>77.3</v>
       </c>
       <c r="C20" s="16">
-        <f t="shared" ref="C20:F20" si="6">AVERAGE(C10:C19)</f>
+        <f t="shared" ref="C20:F20" si="7">AVERAGE(C10:C19)</f>
         <v>425.1</v>
       </c>
       <c r="D20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7508.5</v>
       </c>
       <c r="E20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44472.3</v>
       </c>
       <c r="F20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-6.8212102632969615E-14</v>
       </c>
       <c r="G20" s="16">
         <f>SUM(G10:G19)</f>
         <v>27463.749584205696</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="16">
         <f>SUM(H10:H19)</f>
         <v>879463.15041579399</v>
       </c>
@@ -3737,19 +4191,19 @@
         <v>271402.7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="42" t="s">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="35" t="s">
         <v>79</v>
       </c>
       <c r="C22" s="9">
@@ -3762,17 +4216,17 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <f>G20</f>
         <v>27463.749584205696</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="42" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="35" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="9">
@@ -3785,27 +4239,27 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <f>H20</f>
         <v>879463.15041579399</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="42" t="s">
+      <c r="G24" s="36"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="35" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="9">
@@ -3815,274 +4269,178 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="62">
         <f>H20/(G20+H20)</f>
         <v>0.9697177913851649</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="G26" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="9">
         <f>(E20-B20*C20)/SQRT((D20-B20^2)*(J20-C20^2))</f>
         <v>0.9847425000400688</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="10">
+      <c r="G27" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="9">
         <f>SQRT(H25)</f>
         <v>0.9847425000400688</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="13">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="9">
         <f>CORREL(B10:B19,C10:C19)</f>
         <v>0.98474250004006858</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="60">
+        <f>(H23/1)/(H22/(10-1-1))</f>
+        <v>256.18152327505055</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G30" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30">
+        <f>_xlfn.F.INV(0.95,1,8)</f>
+        <v>5.3176550715787139</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G31" s="61"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G32" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32">
+        <f>H22 / (10 - 2)</f>
+        <v>3432.968698025712</v>
+      </c>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G33" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="64">
+        <f>SQRT(H32*SUM(D10:D19)/10/SUM(K10:K19))</f>
+        <v>41.00253355800988</v>
+      </c>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G34" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="64">
+        <f>SQRT(H32/SUM(K10:K19))</f>
+        <v>0.4731884115735891</v>
+      </c>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G35" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="69">
+        <f>C23/H33</f>
+        <v>-3.9106578584535412</v>
+      </c>
+      <c r="I35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G36" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="69">
+        <f>C22/H34</f>
+        <v>16.005671597126145</v>
+      </c>
+      <c r="I36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G37" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37">
+        <f>TINV(0.05,8)</f>
+        <v>2.3060041352041671</v>
+      </c>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G38" s="61"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.9847425000400688</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.9697177913851649</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.96593251530831048</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="3">
-        <v>7.6181514383700115</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="4">
-        <v>10</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="10"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
@@ -4103,18 +4461,10 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -4124,26 +4474,7 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -4154,27 +4485,10 @@
       <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3">
-        <v>14867.8101492965</v>
-      </c>
-      <c r="D43" s="3">
-        <v>14867.810149296487</v>
-      </c>
-      <c r="E43" s="3">
-        <v>256.18152327505106</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2.3277576054773912E-7</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="A43" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="33"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -4185,23 +4499,12 @@
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
-        <v>96</v>
+      <c r="A44" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B44" s="3">
-        <v>8</v>
-      </c>
-      <c r="C44" s="3">
-        <v>464.28985070351263</v>
-      </c>
-      <c r="D44" s="3">
-        <v>58.036231337939078</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+        <v>0.9847425000400688</v>
+      </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -4211,22 +4514,13 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="4">
-        <v>9</v>
-      </c>
-      <c r="C45" s="4">
-        <v>15332.1</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="63">
+        <v>0.9697177913851649</v>
+      </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -4236,16 +4530,13 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="10"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.96593251530831048</v>
+      </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -4256,30 +4547,11 @@
       <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>104</v>
+      <c r="B47" s="3">
+        <v>58.591541181519602</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -4290,33 +4562,12 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="3">
-        <v>22.871236700554356</v>
-      </c>
-      <c r="C48" s="3">
-        <v>4.1674513796030723</v>
-      </c>
-      <c r="D48" s="3">
-        <v>5.4880632351211061</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5.8188611239397682E-4</v>
-      </c>
-      <c r="F48" s="3">
-        <v>13.261076585927359</v>
-      </c>
-      <c r="G48" s="3">
-        <v>32.481396815181355</v>
-      </c>
-      <c r="H48" s="3">
-        <v>13.261076585927359</v>
-      </c>
-      <c r="I48" s="3">
-        <v>32.481396815181355</v>
+    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="4">
+        <v>10</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -4327,34 +4578,7 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="10"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0.12803755186884413</v>
-      </c>
-      <c r="C49" s="4">
-        <v>7.9995113664479683E-3</v>
-      </c>
-      <c r="D49" s="4">
-        <v>16.005671597126163</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2.3277576054773872E-7</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0.10959064557820239</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.14648445815948588</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0.10959064557820239</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0.14648445815948588</v>
-      </c>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -4364,16 +4588,10 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -4384,15 +4602,22 @@
       <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4403,15 +4628,24 @@
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="A52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>879463.15041579434</v>
+      </c>
+      <c r="D52" s="3">
+        <v>879463.15041579434</v>
+      </c>
+      <c r="E52" s="38">
+        <v>256.18152327505101</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2.3277576054773954E-7</v>
+      </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -4422,17 +4656,20 @@
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="A53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="3">
+        <v>8</v>
+      </c>
+      <c r="C53" s="3">
+        <v>27463.74958420566</v>
+      </c>
+      <c r="D53" s="3">
+        <v>3432.9686980257075</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -4443,15 +4680,18 @@
       <c r="Q53" s="10"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="A54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="4">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4">
+        <v>906926.9</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -4461,24 +4701,7 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="10"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -4489,23 +4712,31 @@
       <c r="Q55" s="10"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="46">
-        <v>1</v>
-      </c>
-      <c r="B56" s="3">
-        <v>129.78259251103921</v>
-      </c>
-      <c r="C56" s="3">
-        <v>6.217407488960788</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0.86563735948484544</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -4516,23 +4747,33 @@
       <c r="Q56" s="10"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="46">
-        <v>2</v>
+      <c r="A57" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B57" s="3">
-        <v>30.937602468291537</v>
-      </c>
-      <c r="C57" s="3">
-        <v>-6.9376024682915371</v>
-      </c>
-      <c r="D57" s="3">
-        <v>-0.96590868339742941</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+        <v>-160.34688007513671</v>
+      </c>
+      <c r="C57" s="65">
+        <v>41.002533558009858</v>
+      </c>
+      <c r="D57" s="67">
+        <v>-3.9106578584535514</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4.4768975395744707E-3</v>
+      </c>
+      <c r="F57" s="3">
+        <v>-254.89889201375507</v>
+      </c>
+      <c r="G57" s="3">
+        <v>-65.794868136518346</v>
+      </c>
+      <c r="H57" s="3">
+        <v>-254.89889201375507</v>
+      </c>
+      <c r="I57" s="3">
+        <v>-65.794868136518346</v>
+      </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -4542,24 +4783,34 @@
       <c r="P57" s="9"/>
       <c r="Q57" s="10"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="46">
-        <v>3</v>
-      </c>
-      <c r="B58" s="3">
-        <v>53.600249149076944</v>
-      </c>
-      <c r="C58" s="3">
-        <v>-1.6002491490769444</v>
-      </c>
-      <c r="D58" s="3">
-        <v>-0.22279952703508143</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="4">
+        <v>7.5736983192126361</v>
+      </c>
+      <c r="C58" s="66">
+        <v>0.47318841157358882</v>
+      </c>
+      <c r="D58" s="68">
+        <v>16.005671597126163</v>
+      </c>
+      <c r="E58" s="4">
+        <v>2.3277576054773872E-7</v>
+      </c>
+      <c r="F58" s="4">
+        <v>6.482523885393249</v>
+      </c>
+      <c r="G58" s="4">
+        <v>8.6648727530320233</v>
+      </c>
+      <c r="H58" s="4">
+        <v>6.482523885393249</v>
+      </c>
+      <c r="I58" s="4">
+        <v>8.6648727530320233</v>
+      </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -4570,23 +4821,6 @@
       <c r="Q58" s="10"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="46">
-        <v>4</v>
-      </c>
-      <c r="B59" s="3">
-        <v>151.54897632874273</v>
-      </c>
-      <c r="C59" s="3">
-        <v>-8.5489763287427252</v>
-      </c>
-      <c r="D59" s="3">
-        <v>-1.1902570820154221</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -4597,23 +4831,6 @@
       <c r="Q59" s="10"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="46">
-        <v>5</v>
-      </c>
-      <c r="B60" s="3">
-        <v>46.430146244421678</v>
-      </c>
-      <c r="C60" s="3">
-        <v>-4.4301462444216781</v>
-      </c>
-      <c r="D60" s="3">
-        <v>-0.61680050792261532</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -4624,23 +4841,6 @@
       <c r="Q60" s="10"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="46">
-        <v>6</v>
-      </c>
-      <c r="B61" s="3">
-        <v>50.143235248618154</v>
-      </c>
-      <c r="C61" s="3">
-        <v>-7.1432352486181543</v>
-      </c>
-      <c r="D61" s="3">
-        <v>-0.99453852908496254</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
@@ -4651,23 +4851,12 @@
       <c r="Q61" s="10"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="46">
-        <v>7</v>
-      </c>
-      <c r="B62" s="3">
-        <v>62.94699043550257</v>
-      </c>
-      <c r="C62" s="3">
-        <v>4.0530095644974296</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0.56429251317494034</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" t="s">
+        <v>137</v>
+      </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -4677,24 +4866,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="10"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="46">
-        <v>8</v>
-      </c>
-      <c r="B63" s="3">
-        <v>107.11994583025378</v>
-      </c>
-      <c r="C63" s="3">
-        <v>-1.1199458302537835</v>
-      </c>
-      <c r="D63" s="3">
-        <v>-0.15592784500425114</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -4705,23 +4877,24 @@
       <c r="Q63" s="10"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="46">
-        <v>9</v>
-      </c>
-      <c r="B64" s="3">
-        <v>47.838559314978966</v>
-      </c>
-      <c r="C64" s="3">
-        <v>13.161440685021034</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1.8324413804028017</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="A64" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -4731,24 +4904,25 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="10"/>
     </row>
-    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="47">
-        <v>10</v>
-      </c>
-      <c r="B65" s="4">
-        <v>92.651702469074422</v>
-      </c>
-      <c r="C65" s="4">
-        <v>6.3482975309255778</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0.88386092139717543</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3">
+        <v>869.67609133778171</v>
+      </c>
+      <c r="C65" s="3">
+        <v>-34.676091337781713</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-0.62772796641480011</v>
+      </c>
+      <c r="F65" s="3">
+        <v>5</v>
+      </c>
+      <c r="G65" s="3">
+        <v>63</v>
+      </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -4759,25 +4933,280 @@
       <c r="Q65" s="10"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="13"/>
+      <c r="A66" s="3">
+        <v>2</v>
+      </c>
+      <c r="B66" s="3">
+        <v>21.421879585966565</v>
+      </c>
+      <c r="C66" s="3">
+        <v>41.578120414033435</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.75267274851169941</v>
+      </c>
+      <c r="F66" s="3">
+        <v>15</v>
+      </c>
+      <c r="G66" s="3">
+        <v>184</v>
+      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3">
+        <v>233.48543252392039</v>
+      </c>
+      <c r="C67" s="3">
+        <v>6.5145674760796055</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.11793071352813699</v>
+      </c>
+      <c r="F67" s="3">
+        <v>25</v>
+      </c>
+      <c r="G67" s="3">
+        <v>195</v>
+      </c>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>4</v>
+      </c>
+      <c r="B68" s="3">
+        <v>922.69197957227027</v>
+      </c>
+      <c r="C68" s="3">
+        <v>82.30802042772973</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1.4899904888193731</v>
+      </c>
+      <c r="F68" s="3">
+        <v>35</v>
+      </c>
+      <c r="G68" s="3">
+        <v>213</v>
+      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>5</v>
+      </c>
+      <c r="B69" s="3">
+        <v>157.74844933179401</v>
+      </c>
+      <c r="C69" s="3">
+        <v>26.251550668205994</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.4752217415644347</v>
+      </c>
+      <c r="F69" s="3">
+        <v>45</v>
+      </c>
+      <c r="G69" s="3">
+        <v>240</v>
+      </c>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="10"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>6</v>
+      </c>
+      <c r="B70" s="3">
+        <v>165.32214765100662</v>
+      </c>
+      <c r="C70" s="3">
+        <v>47.677852348993383</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.86309385352926293</v>
+      </c>
+      <c r="F70" s="3">
+        <v>55</v>
+      </c>
+      <c r="G70" s="3">
+        <v>313</v>
+      </c>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="10"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>7</v>
+      </c>
+      <c r="B71" s="3">
+        <v>347.09090731210989</v>
+      </c>
+      <c r="C71" s="3">
+        <v>-34.090907312109891</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-0.61713460469951453</v>
+      </c>
+      <c r="F71" s="3">
+        <v>65</v>
+      </c>
+      <c r="G71" s="3">
+        <v>545</v>
+      </c>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="10"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3">
+        <v>642.46514176140272</v>
+      </c>
+      <c r="C72" s="3">
+        <v>15.53485823859728</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.28122157355237559</v>
+      </c>
+      <c r="F72" s="3">
+        <v>75</v>
+      </c>
+      <c r="G72" s="3">
+        <v>658</v>
+      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>9</v>
+      </c>
+      <c r="B73" s="3">
+        <v>301.64871739683412</v>
+      </c>
+      <c r="C73" s="3">
+        <v>-106.64871739683412</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-1.9306207796067034</v>
+      </c>
+      <c r="F73" s="3">
+        <v>85</v>
+      </c>
+      <c r="G73" s="3">
+        <v>835</v>
+      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="10"/>
+    </row>
+    <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>10</v>
+      </c>
+      <c r="B74" s="4">
+        <v>589.44925352691428</v>
+      </c>
+      <c r="C74" s="4">
+        <v>-44.449253526914276</v>
+      </c>
+      <c r="D74" s="4">
+        <v>-0.80464776878427491</v>
+      </c>
+      <c r="F74" s="4">
+        <v>95</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1005</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="10"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="13"/>
     </row>
   </sheetData>
+  <sortState ref="G65:G74">
+    <sortCondition ref="G65"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
